--- a/server/sqlapp/dataimport/Arun Tea Estate (Sonitpur).xlsx
+++ b/server/sqlapp/dataimport/Arun Tea Estate (Sonitpur).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B89CCB-FE8F-4BA8-91C6-982D5B60B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2FC68-6D73-454F-A1AD-438F5EF46B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="601" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="42">
   <si>
     <t>Arun TEA ESTATE (Sonitpur District)</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Avg(Total rainfal/no of days)</t>
   </si>
   <si>
-    <t>Arun TEA ESTATE (Sonitpur Disrict)</t>
-  </si>
-  <si>
     <t>YEAR 1998</t>
   </si>
   <si>
@@ -182,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,14 +579,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -606,7 +603,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -623,7 +620,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -640,7 +637,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -657,7 +654,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -698,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -821,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -862,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -1313,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -1805,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -1887,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1951.25</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>0.5161290322580645</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2270,14 +2267,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2294,7 +2291,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2311,7 +2308,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2328,7 +2325,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2336,7 +2333,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2345,7 +2342,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2427,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -2550,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -2796,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -2837,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -2919,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -3001,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -3329,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -3452,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>1259.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -3767,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -3820,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -3873,7 +3870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3955,14 +3952,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3979,7 +3976,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3996,7 +3993,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4013,7 +4010,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4021,7 +4018,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4030,7 +4027,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4071,7 +4068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -4153,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -4358,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -4645,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -4686,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -4727,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -4768,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -4809,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -5014,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -5055,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -5096,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -5178,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -5301,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5396,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -5640,14 +5637,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5664,7 +5661,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5681,7 +5678,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5698,7 +5695,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5706,7 +5703,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5715,7 +5712,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5756,7 +5753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5920,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -5961,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -6002,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -6043,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -6084,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -6248,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -6289,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -6371,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -6412,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -6494,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -6576,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -6617,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -6699,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -6740,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -6863,7 +6860,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -6904,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -6945,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>1749.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -7296,7 +7293,7 @@
         <v>0.54838709677419351</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7325,14 +7322,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7349,7 +7346,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7366,7 +7363,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7383,7 +7380,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7391,7 +7388,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -7400,7 +7397,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -7523,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -7564,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -7605,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -7646,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -7687,7 +7684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -7728,7 +7725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -7769,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -7851,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -7892,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -7933,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -8015,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -8097,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -8220,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -8302,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -8343,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -8384,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -8425,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -8466,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -8507,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -8548,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -8630,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -8671,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -8768,7 +8765,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -8874,7 +8871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -8927,7 +8924,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -8980,7 +8977,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -9009,14 +9006,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9033,7 +9030,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9050,7 +9047,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9067,7 +9064,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9075,7 +9072,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -9084,7 +9081,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -9125,7 +9122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -9166,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -9207,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -9248,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -9289,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -9371,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -9412,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -9453,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -9494,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -9535,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -9617,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -9658,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -9740,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -9781,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -9822,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -9863,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -9986,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -10027,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -10068,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -10191,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -10232,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -10273,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -10314,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -10355,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -10452,7 +10449,7 @@
         <v>1960.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -10505,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -10558,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -10611,7 +10608,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -10664,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10693,14 +10690,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10717,7 +10714,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10734,7 +10731,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10751,7 +10748,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10759,7 +10756,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10768,7 +10765,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -10809,7 +10806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -10850,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -10932,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -10973,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -11014,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -11055,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -11096,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -11137,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -11178,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -11219,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -11260,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -11301,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -11342,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -11383,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -11424,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -11465,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -11506,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -11547,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -11588,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -11629,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -11670,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -11711,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -11752,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -11793,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -11834,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -11875,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -11916,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -11998,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -12039,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -12080,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -12136,7 +12133,7 @@
         <v>1299.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -12189,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -12242,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -12295,7 +12292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -12348,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12374,17 +12371,17 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12401,7 +12398,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12418,7 +12415,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12435,7 +12432,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -12443,7 +12440,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -12452,7 +12449,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -12534,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -12575,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -12616,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -12657,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -12698,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -12739,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -12780,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -12821,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -12862,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -12903,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -12944,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -13026,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -13067,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -13108,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -13149,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -13190,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -13231,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -13272,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -13313,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -13354,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -13395,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -13436,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -13477,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -13518,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -13559,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -13600,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -13641,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -13682,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -13723,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -13764,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -13820,7 +13817,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -13873,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -13926,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -13979,7 +13976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -14032,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -14061,14 +14058,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14085,7 +14082,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -14102,7 +14099,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -14119,7 +14116,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -14127,7 +14124,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -14136,7 +14133,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -14177,7 +14174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -14218,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -14259,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -14300,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -14341,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -14382,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -14423,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -14464,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -14505,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -14546,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -14587,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -14628,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -14669,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -14751,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -14792,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -14833,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -14874,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -14915,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -14956,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -14997,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -15038,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -15079,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -15120,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -15161,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -15202,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -15243,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -15284,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -15325,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -15366,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -15407,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -15448,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -15504,7 +15501,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -15557,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -15610,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -15663,7 +15660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -15716,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -15745,14 +15742,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15769,7 +15766,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15786,7 +15783,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15803,7 +15800,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -15811,7 +15808,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -15820,7 +15817,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -15861,7 +15858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -15902,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -15943,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -15984,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -16025,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -16066,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -16107,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -16148,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -16189,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -16230,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -16271,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -16312,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -16353,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -16394,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -16435,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -16476,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -16517,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -16558,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -16599,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -16640,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -16681,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -16722,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -16763,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -16804,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -16845,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -16886,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -16927,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -16968,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -17009,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -17050,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -17091,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -17132,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -17188,7 +17185,7 @@
         <v>1556.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -17241,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -17294,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -17347,7 +17344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -17400,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -17429,14 +17426,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17453,7 +17450,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -17470,7 +17467,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17487,7 +17484,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -17495,7 +17492,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -17504,7 +17501,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -17545,7 +17542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -17586,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -17627,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -17668,7 +17665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -17709,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -17750,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -17791,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -17832,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -17873,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -17914,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -17955,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -17996,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -18037,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -18078,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -18119,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -18160,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -18201,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -18242,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -18283,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -18324,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -18365,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -18406,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -18447,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -18488,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -18529,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -18570,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -18611,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -18652,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -18693,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -18734,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -18775,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -18816,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -18872,7 +18869,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -18925,7 +18922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -18978,7 +18975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -19031,7 +19028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -19084,7 +19081,7 @@
         <v>0.5161290322580645</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19109,18 +19106,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -19129,7 +19126,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -19137,7 +19134,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -19154,7 +19151,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -19171,7 +19168,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -19179,7 +19176,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -19188,7 +19185,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -19229,7 +19226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -19270,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -19311,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -19352,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -19393,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -19434,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -19475,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -19516,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -19557,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -19598,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -19639,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -19680,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -19721,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -19762,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -19803,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -19844,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -19885,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -19926,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -19967,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -20008,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -20049,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -20090,7 +20087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -20131,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -20172,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -20213,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -20254,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -20295,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -20336,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -20377,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -20418,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -20459,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -20500,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -20556,7 +20553,7 @@
         <v>2051.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -20609,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -20662,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -20715,7 +20712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -20768,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -20793,18 +20790,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20821,7 +20818,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -20838,7 +20835,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -20855,7 +20852,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -20863,7 +20860,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -20872,7 +20869,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -20913,7 +20910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -20946,7 +20943,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -20979,7 +20976,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -21012,7 +21009,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -21045,7 +21042,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -21071,14 +21068,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -21104,14 +21101,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -21137,14 +21134,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -21170,14 +21167,14 @@
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -21203,14 +21200,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -21236,14 +21233,14 @@
         <v>3</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -21269,14 +21266,14 @@
         <v>7</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -21302,14 +21299,14 @@
         <v>12</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -21335,14 +21332,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -21368,14 +21365,14 @@
         <v>8</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -21401,14 +21398,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -21434,14 +21431,14 @@
         <v>13</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -21467,14 +21464,14 @@
         <v>10</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -21500,14 +21497,14 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -21533,14 +21530,14 @@
         <v>12</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -21566,14 +21563,14 @@
         <v>5</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -21599,14 +21596,14 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -21632,14 +21629,14 @@
         <v>6.5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -21665,14 +21662,14 @@
         <v>7.5</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -21698,14 +21695,14 @@
         <v>0</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -21731,14 +21728,14 @@
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -21764,14 +21761,14 @@
         <v>9.5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -21797,14 +21794,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -21830,14 +21827,14 @@
         <v>2</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -21863,14 +21860,14 @@
         <v>0</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -21896,14 +21893,14 @@
         <v>0</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -21929,14 +21926,14 @@
         <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -21992,7 +21989,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -22045,7 +22042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -22098,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -22151,7 +22148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -22204,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -22230,17 +22227,17 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -22257,7 +22254,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -22274,7 +22271,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -22291,7 +22288,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -22299,7 +22296,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -22308,7 +22305,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -22349,7 +22346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -22390,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -22431,7 +22428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -22472,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -22513,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -22554,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -22595,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -22636,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -22677,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -22718,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -22759,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -22800,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -22841,7 +22838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -22882,7 +22879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -22923,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -22964,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -23005,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -23046,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -23087,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -23128,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -23169,7 +23166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -23210,7 +23207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -23251,7 +23248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -23292,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -23333,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -23374,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -23415,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -23456,7 +23453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -23497,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -23538,7 +23535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -23579,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -23620,7 +23617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -23676,7 +23673,7 @@
         <v>2001.5</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -23729,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -23782,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -23835,7 +23832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -23888,7 +23885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -23914,17 +23911,17 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23941,7 +23938,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -23958,7 +23955,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -23975,7 +23972,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23983,7 +23980,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -23992,7 +23989,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -24033,7 +24030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -24074,7 +24071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -24115,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -24156,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -24197,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -24238,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -24279,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -24361,7 +24358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -24402,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -24443,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -24484,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -24525,7 +24522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -24566,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -24607,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -24648,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -24689,7 +24686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -24730,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -24771,7 +24768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -24812,7 +24809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -24853,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -24894,7 +24891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -24935,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -24976,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -25017,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -25058,7 +25055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -25099,7 +25096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -25140,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -25181,7 +25178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -25222,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -25263,7 +25260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -25304,7 +25301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -25360,7 +25357,7 @@
         <v>1197.2</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -25413,7 +25410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -25466,7 +25463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -25519,7 +25516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -25572,7 +25569,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -25601,14 +25598,14 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25625,7 +25622,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -25642,7 +25639,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -25659,7 +25656,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -25667,7 +25664,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25676,7 +25673,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -25717,7 +25714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -25758,7 +25755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -25799,7 +25796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -25840,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -25881,7 +25878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -25922,7 +25919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -25963,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -26004,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -26045,7 +26042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -26086,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -26127,7 +26124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -26168,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -26209,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -26250,7 +26247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -26291,7 +26288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -26332,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -26373,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -26414,7 +26411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -26455,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -26496,7 +26493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -26537,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -26578,7 +26575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -26619,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -26660,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -26701,7 +26698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -26742,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -26783,7 +26780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -26824,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -26865,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -26906,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -26947,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -26988,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -27044,7 +27041,7 @@
         <v>953.19999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -27097,7 +27094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -27150,7 +27147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -27203,7 +27200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -27256,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -27285,14 +27282,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -27309,7 +27306,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -27326,7 +27323,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -27343,7 +27340,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -27351,7 +27348,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -27360,7 +27357,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -27401,7 +27398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -27442,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -27483,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -27524,7 +27521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -27565,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -27606,7 +27603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -27647,7 +27644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -27688,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -27729,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -27770,7 +27767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -27811,7 +27808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -27852,7 +27849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -27893,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -27934,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -27975,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -28016,7 +28013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -28057,7 +28054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -28098,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -28139,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -28180,7 +28177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -28221,7 +28218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -28262,7 +28259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -28303,7 +28300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -28344,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -28385,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -28426,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -28467,7 +28464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -28508,7 +28505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -28549,7 +28546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -28590,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -28631,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -28672,7 +28669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -28728,7 +28725,7 @@
         <v>1161.8</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -28781,7 +28778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -28834,7 +28831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -28887,7 +28884,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -28940,7 +28937,7 @@
         <v>0.70967741935483875</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -28969,14 +28966,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -28993,7 +28990,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -29010,7 +29007,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -29027,7 +29024,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -29035,7 +29032,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -29044,7 +29041,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -29085,7 +29082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -29126,7 +29123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -29167,7 +29164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -29208,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -29249,7 +29246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -29290,7 +29287,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -29331,7 +29328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -29372,7 +29369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -29413,7 +29410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -29454,7 +29451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -29495,7 +29492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -29536,7 +29533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -29577,7 +29574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -29618,7 +29615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -29659,7 +29656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -29700,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -29741,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -29782,7 +29779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -29823,7 +29820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -29864,7 +29861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -29905,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -29946,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -29987,7 +29984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -30028,7 +30025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -30069,7 +30066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -30110,7 +30107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -30151,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -30192,7 +30189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -30233,7 +30230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -30274,7 +30271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -30315,7 +30312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -30356,7 +30353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -30412,7 +30409,7 @@
         <v>1251.5000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -30465,7 +30462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -30518,7 +30515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -30571,7 +30568,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -30624,7 +30621,7 @@
         <v>0.20645161290322581</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -30653,14 +30650,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -30677,7 +30674,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -30694,7 +30691,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -30711,7 +30708,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -30719,7 +30716,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -30728,7 +30725,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -30769,7 +30766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -30810,7 +30807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -30851,7 +30848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -30892,7 +30889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -30933,7 +30930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -30974,7 +30971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -31015,7 +31012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -31056,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -31097,7 +31094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -31138,7 +31135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -31179,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -31220,7 +31217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -31261,7 +31258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -31302,7 +31299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -31343,7 +31340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -31384,7 +31381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -31425,7 +31422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -31466,7 +31463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -31507,7 +31504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -31548,7 +31545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -31589,7 +31586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -31630,7 +31627,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -31671,7 +31668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -31712,7 +31709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -31753,7 +31750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -31794,7 +31791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -31835,7 +31832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -31876,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -31917,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -31958,7 +31955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -31999,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -32040,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -32095,7 +32092,7 @@
         <v>1548.7</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -32148,7 +32145,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -32201,7 +32198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -32254,7 +32251,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -32307,7 +32304,7 @@
         <v>0.26451612903225802</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -32336,14 +32333,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -32360,7 +32357,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -32377,7 +32374,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -32394,7 +32391,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="10.5" customHeight="1">
+    <row r="4" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -32402,7 +32399,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -32411,7 +32408,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -32452,7 +32449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -32493,7 +32490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -32534,7 +32531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -32575,7 +32572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -32616,7 +32613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -32657,7 +32654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -32698,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -32739,7 +32736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -32780,7 +32777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -32821,7 +32818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -32862,7 +32859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -32903,7 +32900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -32944,7 +32941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -32985,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -33026,7 +33023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -33067,7 +33064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -33108,7 +33105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -33149,7 +33146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -33190,7 +33187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -33231,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -33272,7 +33269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -33313,7 +33310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -33354,7 +33351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -33395,7 +33392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -33436,7 +33433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -33477,7 +33474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -33518,7 +33515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -33559,7 +33556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -33600,7 +33597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -33641,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -33682,7 +33679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -33723,7 +33720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>17</v>
       </c>
@@ -33780,7 +33777,7 @@
         <v>1744.34</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -33833,7 +33830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -33886,7 +33883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -33939,7 +33936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -33992,7 +33989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
